--- a/Code/Results/Cases/Case_7_44/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_44/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.01781881143886</v>
+        <v>12.99647172854572</v>
       </c>
       <c r="C2">
-        <v>10.31140347410722</v>
+        <v>8.178564876688402</v>
       </c>
       <c r="D2">
-        <v>5.717551136149505</v>
+        <v>5.516204990210856</v>
       </c>
       <c r="E2">
-        <v>7.257991684228521</v>
+        <v>8.261391603913889</v>
       </c>
       <c r="F2">
-        <v>38.38641512930072</v>
+        <v>22.45312880198251</v>
       </c>
       <c r="G2">
-        <v>2.113580054704738</v>
+        <v>2.118009224005797</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>14.6884463189797</v>
+        <v>10.86979578855075</v>
       </c>
       <c r="L2">
-        <v>6.197056547526995</v>
+        <v>6.203339793693086</v>
       </c>
       <c r="M2">
-        <v>11.48821709487462</v>
+        <v>9.560531046349743</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>30.77246889093383</v>
+        <v>18.7606823515178</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.86570413662032</v>
+        <v>12.11599270660482</v>
       </c>
       <c r="C3">
-        <v>9.819259530271134</v>
+        <v>8.193599423724402</v>
       </c>
       <c r="D3">
-        <v>5.765917229753849</v>
+        <v>5.419537255097535</v>
       </c>
       <c r="E3">
-        <v>7.280451616360942</v>
+        <v>8.276582726181516</v>
       </c>
       <c r="F3">
-        <v>36.91305948169291</v>
+        <v>22.20576402062209</v>
       </c>
       <c r="G3">
-        <v>2.123423442100602</v>
+        <v>2.123077243896433</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>13.67331393759984</v>
+        <v>10.29051503474835</v>
       </c>
       <c r="L3">
-        <v>6.126219096213967</v>
+        <v>6.126184775260887</v>
       </c>
       <c r="M3">
-        <v>11.0668240135612</v>
+        <v>9.244135629937663</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>29.7852268906063</v>
+        <v>18.77071901474089</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.14184231482932</v>
+        <v>11.54354681102896</v>
       </c>
       <c r="C4">
-        <v>9.505583211627313</v>
+        <v>8.203770268606613</v>
       </c>
       <c r="D4">
-        <v>5.796337051729189</v>
+        <v>5.358855123863314</v>
       </c>
       <c r="E4">
-        <v>7.295601199930883</v>
+        <v>8.289923488637399</v>
       </c>
       <c r="F4">
-        <v>36.01044175042522</v>
+        <v>22.07043721919962</v>
       </c>
       <c r="G4">
-        <v>2.129612979060743</v>
+        <v>2.126287787823721</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>13.01732743531068</v>
+        <v>9.917470902041886</v>
       </c>
       <c r="L4">
-        <v>6.085729013905357</v>
+        <v>6.081080928955731</v>
       </c>
       <c r="M4">
-        <v>10.8086455457205</v>
+        <v>9.048191120200102</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>29.18678896559939</v>
+        <v>18.79036179217246</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.84051805473915</v>
+        <v>11.30221714128354</v>
       </c>
       <c r="C5">
-        <v>9.374887924455715</v>
+        <v>8.208149682821674</v>
       </c>
       <c r="D5">
-        <v>5.808914815266895</v>
+        <v>5.333807859573766</v>
       </c>
       <c r="E5">
-        <v>7.302108499431897</v>
+        <v>8.296344971963405</v>
       </c>
       <c r="F5">
-        <v>35.64345716592101</v>
+        <v>22.0193905794051</v>
       </c>
       <c r="G5">
-        <v>2.132173997974229</v>
+        <v>2.127621486952247</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>12.74167931377153</v>
+        <v>9.761150210457153</v>
       </c>
       <c r="L5">
-        <v>6.069974108356887</v>
+        <v>6.063279031131614</v>
       </c>
       <c r="M5">
-        <v>10.70370497669237</v>
+        <v>8.968035973452977</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>28.94502001058956</v>
+        <v>18.80163768104899</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.79010653502412</v>
+        <v>11.26165668537986</v>
       </c>
       <c r="C6">
-        <v>9.353013689638095</v>
+        <v>8.208891015025781</v>
       </c>
       <c r="D6">
-        <v>5.811014300008257</v>
+        <v>5.329629980054319</v>
       </c>
       <c r="E6">
-        <v>7.303208964825379</v>
+        <v>8.297470044193282</v>
       </c>
       <c r="F6">
-        <v>35.58258084324184</v>
+        <v>22.01115990283804</v>
       </c>
       <c r="G6">
-        <v>2.132601651333249</v>
+        <v>2.127844494801439</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>12.69540211598636</v>
+        <v>9.734935646100727</v>
       </c>
       <c r="L6">
-        <v>6.067402710402571</v>
+        <v>6.060358164929038</v>
       </c>
       <c r="M6">
-        <v>10.68629996543249</v>
+        <v>8.954711321870546</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>28.90500609150726</v>
+        <v>18.80370415448803</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.1378039631992</v>
+        <v>11.54032482808967</v>
       </c>
       <c r="C7">
-        <v>9.503832188396276</v>
+        <v>8.203828382500541</v>
       </c>
       <c r="D7">
-        <v>5.796505945330267</v>
+        <v>5.358518598085634</v>
       </c>
       <c r="E7">
-        <v>7.295687618561582</v>
+        <v>8.290006134484774</v>
       </c>
       <c r="F7">
-        <v>36.00548860086613</v>
+        <v>22.06973227644734</v>
       </c>
       <c r="G7">
-        <v>2.12964735835374</v>
+        <v>2.126305671106048</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>13.013643807405</v>
+        <v>9.915380028877433</v>
       </c>
       <c r="L7">
-        <v>6.085513534729479</v>
+        <v>6.080838495720352</v>
       </c>
       <c r="M7">
-        <v>10.8072290100346</v>
+        <v>9.047111200648015</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>29.18351966796693</v>
+        <v>18.79050077365001</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.61593668023118</v>
+        <v>12.69945825705106</v>
       </c>
       <c r="C8">
-        <v>10.14410669033147</v>
+        <v>8.183552795966825</v>
       </c>
       <c r="D8">
-        <v>5.734077412502034</v>
+        <v>5.4831583338424</v>
       </c>
       <c r="E8">
-        <v>7.265448746287658</v>
+        <v>8.265781917440664</v>
       </c>
       <c r="F8">
-        <v>37.87816368758551</v>
+        <v>22.36436659718962</v>
       </c>
       <c r="G8">
-        <v>2.116945139715588</v>
+        <v>2.119736513969897</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>14.34514663310437</v>
+        <v>10.67369681137227</v>
       </c>
       <c r="L8">
-        <v>6.17200209021351</v>
+        <v>6.176270536608578</v>
       </c>
       <c r="M8">
-        <v>11.34287756035215</v>
+        <v>9.451852297987202</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>30.43054991710181</v>
+        <v>18.76127390023717</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.55568624748252</v>
+        <v>14.72225812987952</v>
       </c>
       <c r="C9">
-        <v>11.30834815724119</v>
+        <v>8.151326388342635</v>
       </c>
       <c r="D9">
-        <v>5.617429520147735</v>
+        <v>5.716421735817045</v>
       </c>
       <c r="E9">
-        <v>7.217333090125293</v>
+        <v>8.25121751769796</v>
       </c>
       <c r="F9">
-        <v>41.55490580198947</v>
+        <v>23.07580330928546</v>
       </c>
       <c r="G9">
-        <v>2.093088045401239</v>
+        <v>2.107612187749664</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>16.70207117216897</v>
+        <v>12.0209847110671</v>
       </c>
       <c r="L9">
-        <v>6.36591217495169</v>
+        <v>6.381046923167364</v>
       </c>
       <c r="M9">
-        <v>12.39288797837434</v>
+        <v>10.2276576505671</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>32.93177900493219</v>
+        <v>18.81621518142924</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.55834164339922</v>
+        <v>16.05907306011277</v>
       </c>
       <c r="C10">
-        <v>12.10910029728541</v>
+        <v>8.132366002938614</v>
       </c>
       <c r="D10">
-        <v>5.5353535846391</v>
+        <v>5.880234451668165</v>
       </c>
       <c r="E10">
-        <v>7.189419068820814</v>
+        <v>8.262118626009169</v>
       </c>
       <c r="F10">
-        <v>44.24801219596635</v>
+        <v>23.68245351988166</v>
       </c>
       <c r="G10">
-        <v>2.076041904509772</v>
+        <v>2.09912837997917</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>18.28667439881629</v>
+        <v>12.92392418466527</v>
       </c>
       <c r="L10">
-        <v>6.52388858617078</v>
+        <v>6.541708761499132</v>
       </c>
       <c r="M10">
-        <v>13.23695527059686</v>
+        <v>10.78131389869836</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>34.79848668828759</v>
+        <v>18.93223911480404</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.43261459041731</v>
+        <v>16.63551511728933</v>
       </c>
       <c r="C11">
-        <v>12.4620815987656</v>
+        <v>8.124795894505397</v>
       </c>
       <c r="D11">
-        <v>5.49884695642124</v>
+        <v>5.952970249052352</v>
       </c>
       <c r="E11">
-        <v>7.178494202009571</v>
+        <v>8.272100349635068</v>
       </c>
       <c r="F11">
-        <v>45.47055902865156</v>
+        <v>23.97702245164731</v>
       </c>
       <c r="G11">
-        <v>2.06835157513115</v>
+        <v>2.095352011599108</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>18.97756319987238</v>
+        <v>13.31568872166683</v>
       </c>
       <c r="L11">
-        <v>6.599297479650448</v>
+        <v>6.616894835290547</v>
       </c>
       <c r="M11">
-        <v>13.73569646805892</v>
+        <v>11.02870456961317</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>35.65379197500562</v>
+        <v>19.00298407450378</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.75859670404866</v>
+        <v>16.84930253430214</v>
       </c>
       <c r="C12">
-        <v>12.59419065311775</v>
+        <v>8.122083957289963</v>
       </c>
       <c r="D12">
-        <v>5.4851481436304</v>
+        <v>5.980246040388339</v>
       </c>
       <c r="E12">
-        <v>7.174627624610316</v>
+        <v>8.276630023870124</v>
       </c>
       <c r="F12">
-        <v>45.93317010980946</v>
+        <v>24.0912617128962</v>
       </c>
       <c r="G12">
-        <v>2.065444873326872</v>
+        <v>2.093933149432754</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>19.23505524501702</v>
+        <v>13.4613091458436</v>
       </c>
       <c r="L12">
-        <v>6.628379267416141</v>
+        <v>6.645657551798492</v>
       </c>
       <c r="M12">
-        <v>13.92158234402196</v>
+        <v>11.12167782847189</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>35.9786000343143</v>
+        <v>19.03248096930302</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.68861339985855</v>
+        <v>16.80345874006073</v>
       </c>
       <c r="C13">
-        <v>12.56580663712859</v>
+        <v>8.122661090638017</v>
       </c>
       <c r="D13">
-        <v>5.488092730336843</v>
+        <v>5.974383784063272</v>
       </c>
       <c r="E13">
-        <v>7.175448066636409</v>
+        <v>8.275620687205761</v>
       </c>
       <c r="F13">
-        <v>45.83355233898935</v>
+        <v>24.06653826026587</v>
       </c>
       <c r="G13">
-        <v>2.066070705264133</v>
+        <v>2.094238242817245</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>19.17978054382114</v>
+        <v>13.43006865230244</v>
       </c>
       <c r="L13">
-        <v>6.622092293701792</v>
+        <v>6.639450191204353</v>
       </c>
       <c r="M13">
-        <v>13.88167879260926</v>
+        <v>11.10168680567875</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>35.90860451757465</v>
+        <v>19.02600591585548</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.45953404222239</v>
+        <v>16.65319336346264</v>
       </c>
       <c r="C14">
-        <v>12.47298106386175</v>
+        <v>8.124569663292698</v>
       </c>
       <c r="D14">
-        <v>5.497717390680265</v>
+        <v>5.955219670296557</v>
       </c>
       <c r="E14">
-        <v>7.178170581035954</v>
+        <v>8.272457822341389</v>
       </c>
       <c r="F14">
-        <v>45.50862468870903</v>
+        <v>23.98636693811896</v>
       </c>
       <c r="G14">
-        <v>2.06811235267927</v>
+        <v>2.095235061702061</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>18.99882898195945</v>
+        <v>13.32772374516831</v>
       </c>
       <c r="L14">
-        <v>6.601679408051907</v>
+        <v>6.619255380838032</v>
       </c>
       <c r="M14">
-        <v>13.75104831944921</v>
+        <v>11.03636806795867</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>35.68049520430418</v>
+        <v>19.00535583746633</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.31856027566033</v>
+        <v>16.56056734610226</v>
       </c>
       <c r="C15">
-        <v>12.4159221525134</v>
+        <v>8.125758958922267</v>
       </c>
       <c r="D15">
-        <v>5.503629324870061</v>
+        <v>5.943445921332343</v>
       </c>
       <c r="E15">
-        <v>7.179873909611387</v>
+        <v>8.270618947160843</v>
       </c>
       <c r="F15">
-        <v>45.30955500901263</v>
+        <v>23.93761077115198</v>
       </c>
       <c r="G15">
-        <v>2.069363512765877</v>
+        <v>2.095847072808064</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>18.88745824161135</v>
+        <v>13.26467878026395</v>
       </c>
       <c r="L15">
-        <v>6.589244973180604</v>
+        <v>6.606923114944771</v>
       </c>
       <c r="M15">
-        <v>13.67064959369162</v>
+        <v>10.99626445602687</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>35.54089398188312</v>
+        <v>18.99306329879702</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.50048277553125</v>
+        <v>16.02076854076054</v>
       </c>
       <c r="C16">
-        <v>12.08581026034975</v>
+        <v>8.1328822062478</v>
       </c>
       <c r="D16">
-        <v>5.537756559885475</v>
+        <v>5.87544412783153</v>
       </c>
       <c r="E16">
-        <v>7.190169993669686</v>
+        <v>8.261569714825693</v>
       </c>
       <c r="F16">
-        <v>44.1680647548022</v>
+        <v>23.66357864997289</v>
       </c>
       <c r="G16">
-        <v>2.076545463577379</v>
+        <v>2.099376779756578</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>18.24093497710819</v>
+        <v>12.89793903405782</v>
       </c>
       <c r="L16">
-        <v>6.5190330983366</v>
+        <v>6.536836519095857</v>
       </c>
       <c r="M16">
-        <v>13.20393787611809</v>
+        <v>10.76505056048215</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>34.742716070521</v>
+        <v>18.92798789214695</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.98934023178801</v>
+        <v>15.681545094543</v>
       </c>
       <c r="C17">
-        <v>11.88044813692339</v>
+        <v>8.137524346544067</v>
       </c>
       <c r="D17">
-        <v>5.558908874956625</v>
+        <v>5.833262161659177</v>
       </c>
       <c r="E17">
-        <v>7.196950884027059</v>
+        <v>8.257324248730473</v>
       </c>
       <c r="F17">
-        <v>43.46713434205102</v>
+        <v>23.50024692985986</v>
       </c>
       <c r="G17">
-        <v>2.080965226310947</v>
+        <v>2.101562860499323</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>17.83676076171924</v>
+        <v>12.66808910316323</v>
       </c>
       <c r="L17">
-        <v>6.476879021767417</v>
+        <v>6.494370902611671</v>
       </c>
       <c r="M17">
-        <v>12.93717909769813</v>
+        <v>10.62201360923052</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>34.25464173021482</v>
+        <v>18.89275609810349</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.6918726141447</v>
+        <v>15.48344718601147</v>
       </c>
       <c r="C18">
-        <v>11.76126213625863</v>
+        <v>8.140293495264537</v>
       </c>
       <c r="D18">
-        <v>5.571152796620549</v>
+        <v>5.808832956100394</v>
       </c>
       <c r="E18">
-        <v>7.201016958993746</v>
+        <v>8.255353467994576</v>
       </c>
       <c r="F18">
-        <v>43.06372991990118</v>
+        <v>23.40805293327371</v>
       </c>
       <c r="G18">
-        <v>2.083513633754834</v>
+        <v>2.102828093165695</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>17.60145947926043</v>
+        <v>12.53409792780064</v>
       </c>
       <c r="L18">
-        <v>6.452965623920107</v>
+        <v>6.470144106329877</v>
       </c>
       <c r="M18">
-        <v>12.82248164354529</v>
+        <v>10.53932502519075</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>33.97448562997072</v>
+        <v>18.87417532096048</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.59055326484833</v>
+        <v>15.41586015424244</v>
       </c>
       <c r="C19">
-        <v>11.72072280789534</v>
+        <v>8.141248017915569</v>
       </c>
       <c r="D19">
-        <v>5.57531156290625</v>
+        <v>5.800533278469551</v>
       </c>
       <c r="E19">
-        <v>7.202421714355946</v>
+        <v>8.254766273174848</v>
       </c>
       <c r="F19">
-        <v>42.92710210540179</v>
+        <v>23.37713759757457</v>
       </c>
       <c r="G19">
-        <v>2.084377666120595</v>
+        <v>2.103257851093217</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>17.52129923631544</v>
+        <v>12.48842398899892</v>
       </c>
       <c r="L19">
-        <v>6.444925614616537</v>
+        <v>6.461975717870419</v>
       </c>
       <c r="M19">
-        <v>12.78361922605086</v>
+        <v>10.51125854213358</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>33.87972737226346</v>
+        <v>18.86816955582394</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.04411020928793</v>
+        <v>15.71796459478405</v>
       </c>
       <c r="C20">
-        <v>11.90241931100898</v>
+        <v>8.137019904349895</v>
       </c>
       <c r="D20">
-        <v>5.556649098379229</v>
+        <v>5.837769898499285</v>
       </c>
       <c r="E20">
-        <v>7.196211772515795</v>
+        <v>8.257727230394545</v>
       </c>
       <c r="F20">
-        <v>43.54177529863421</v>
+        <v>23.51745260121585</v>
       </c>
       <c r="G20">
-        <v>2.080494111191913</v>
+        <v>2.101329340691695</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>17.88007757884349</v>
+        <v>12.69274206667605</v>
       </c>
       <c r="L20">
-        <v>6.48133187207476</v>
+        <v>6.498870994592691</v>
       </c>
       <c r="M20">
-        <v>12.95839350012509</v>
+        <v>10.63728385375012</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>34.30653882509284</v>
+        <v>18.89633143287986</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.52695653184352</v>
+        <v>16.69745157580765</v>
       </c>
       <c r="C21">
-        <v>12.5002878413981</v>
+        <v>8.124004845556163</v>
       </c>
       <c r="D21">
-        <v>5.494886931549517</v>
+        <v>5.960855984353743</v>
       </c>
       <c r="E21">
-        <v>7.17736344027177</v>
+        <v>8.273366261556523</v>
       </c>
       <c r="F21">
-        <v>45.60407242110374</v>
+        <v>24.00984200742677</v>
       </c>
       <c r="G21">
-        <v>2.067512555279953</v>
+        <v>2.094941975094554</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>19.05208951495361</v>
+        <v>13.35785905701296</v>
       </c>
       <c r="L21">
-        <v>6.607660744496411</v>
+        <v>6.62517926062332</v>
       </c>
       <c r="M21">
-        <v>13.78949740051599</v>
+        <v>11.05557345645453</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>35.74747079407852</v>
+        <v>19.01134680845345</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.4665476785035</v>
+        <v>17.31140902021385</v>
       </c>
       <c r="C22">
-        <v>12.88199540563786</v>
+        <v>8.116402050100344</v>
       </c>
       <c r="D22">
-        <v>5.455257362069189</v>
+        <v>6.03973511342179</v>
       </c>
       <c r="E22">
-        <v>7.166629907247031</v>
+        <v>8.28797077652581</v>
       </c>
       <c r="F22">
-        <v>46.94999132875719</v>
+        <v>24.34734607010748</v>
       </c>
       <c r="G22">
-        <v>2.059058104673171</v>
+        <v>2.090832160177551</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>19.7940740044806</v>
+        <v>13.77662981666411</v>
       </c>
       <c r="L22">
-        <v>6.693300264708681</v>
+        <v>6.709422860866741</v>
       </c>
       <c r="M22">
-        <v>14.32515084761145</v>
+        <v>11.32479859427612</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>36.69464111563413</v>
+        <v>19.10235295031293</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.96770037226791</v>
+        <v>16.98610577508572</v>
       </c>
       <c r="C23">
-        <v>12.67907128809083</v>
+        <v>8.12037609125681</v>
       </c>
       <c r="D23">
-        <v>5.476338557976131</v>
+        <v>5.997782468491336</v>
       </c>
       <c r="E23">
-        <v>7.172207941433337</v>
+        <v>8.27976579197159</v>
       </c>
       <c r="F23">
-        <v>46.23179223390331</v>
+        <v>24.16577245344298</v>
       </c>
       <c r="G23">
-        <v>2.063569040524553</v>
+        <v>2.093019990787095</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>19.40019567319538</v>
+        <v>13.55457952409459</v>
       </c>
       <c r="L23">
-        <v>6.647305128939844</v>
+        <v>6.664308860106338</v>
       </c>
       <c r="M23">
-        <v>14.04080010781437</v>
+        <v>11.18150691885242</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>36.18859229601294</v>
+        <v>19.05229153851144</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.01935994573342</v>
+        <v>15.70150891732209</v>
       </c>
       <c r="C24">
-        <v>11.89248963828189</v>
+        <v>8.137247650412331</v>
       </c>
       <c r="D24">
-        <v>5.557670484738804</v>
+        <v>5.835732504962502</v>
       </c>
       <c r="E24">
-        <v>7.196545403773919</v>
+        <v>8.257543580538572</v>
       </c>
       <c r="F24">
-        <v>43.50803146305537</v>
+        <v>23.50966859981553</v>
       </c>
       <c r="G24">
-        <v>2.080707078925944</v>
+        <v>2.101434888695211</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>17.86050320424162</v>
+        <v>12.68160221583812</v>
       </c>
       <c r="L24">
-        <v>6.479317738111959</v>
+        <v>6.496835918945457</v>
       </c>
       <c r="M24">
-        <v>12.948803154334</v>
+        <v>10.63038158752573</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>34.28307476681471</v>
+        <v>18.8947098178908</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.78442904604925</v>
+        <v>14.20149969988779</v>
       </c>
       <c r="C25">
-        <v>11.00311647178681</v>
+        <v>8.159225998717549</v>
       </c>
       <c r="D25">
-        <v>5.648360221823862</v>
+        <v>5.654594407394702</v>
       </c>
       <c r="E25">
-        <v>7.22909273636939</v>
+        <v>8.25147514641937</v>
       </c>
       <c r="F25">
-        <v>40.56115111774152</v>
+        <v>22.86874022707116</v>
       </c>
       <c r="G25">
-        <v>2.099444938289268</v>
+        <v>2.11081481649153</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>16.09089155245854</v>
+        <v>11.67169225246742</v>
       </c>
       <c r="L25">
-        <v>6.31078334961888</v>
+        <v>6.323815101663125</v>
       </c>
       <c r="M25">
-        <v>12.10947441903647</v>
+        <v>10.02029638882347</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>32.24980205114788</v>
+        <v>18.78858641212641</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_44/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_44/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1211 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.99647172854572</v>
+        <v>13.15449592470392</v>
       </c>
       <c r="C2">
-        <v>8.178564876688402</v>
+        <v>8.338564930800478</v>
       </c>
       <c r="D2">
-        <v>5.516204990210856</v>
+        <v>5.588644800970745</v>
       </c>
       <c r="E2">
-        <v>8.261391603913889</v>
+        <v>8.641045626674577</v>
       </c>
       <c r="F2">
-        <v>22.45312880198251</v>
+        <v>17.34569118170044</v>
       </c>
       <c r="G2">
-        <v>2.118009224005797</v>
+        <v>21.34776673223002</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
+        <v>2.438027405613027</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>8.995625104331754</v>
       </c>
       <c r="K2">
-        <v>10.86979578855075</v>
+        <v>14.85872647399246</v>
       </c>
       <c r="L2">
-        <v>6.203339793693086</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>9.560531046349743</v>
+        <v>11.47209849866932</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.693944309520243</v>
       </c>
       <c r="O2">
-        <v>18.7606823515178</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>9.475618792940764</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>14.43713913102717</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.11599270660482</v>
+        <v>12.32767178524347</v>
       </c>
       <c r="C3">
-        <v>8.193599423724402</v>
+        <v>8.246607032508191</v>
       </c>
       <c r="D3">
-        <v>5.419537255097535</v>
+        <v>5.372411279890358</v>
       </c>
       <c r="E3">
-        <v>8.276582726181516</v>
+        <v>8.527892501765921</v>
       </c>
       <c r="F3">
-        <v>22.20576402062209</v>
+        <v>17.18951506099877</v>
       </c>
       <c r="G3">
-        <v>2.123077243896433</v>
+        <v>21.25698174685199</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
+        <v>2.619546399733085</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>9.060904284219665</v>
       </c>
       <c r="K3">
-        <v>10.29051503474835</v>
+        <v>15.00239378666884</v>
       </c>
       <c r="L3">
-        <v>6.126184775260887</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>9.244135629937663</v>
+        <v>10.92736946862837</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.527399270075161</v>
       </c>
       <c r="O3">
-        <v>18.77071901474089</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>9.077910379095924</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>14.50152511690323</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.54354681102896</v>
+        <v>11.79012624280314</v>
       </c>
       <c r="C4">
-        <v>8.203770268606613</v>
+        <v>8.189211425716573</v>
       </c>
       <c r="D4">
-        <v>5.358855123863314</v>
+        <v>5.234252485494588</v>
       </c>
       <c r="E4">
-        <v>8.289923488637399</v>
+        <v>8.457251441840446</v>
       </c>
       <c r="F4">
-        <v>22.07043721919962</v>
+        <v>17.10505874200707</v>
       </c>
       <c r="G4">
-        <v>2.126287787823721</v>
+        <v>21.21898441908587</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
+        <v>2.734999457179168</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>9.104697052523417</v>
       </c>
       <c r="K4">
-        <v>9.917470902041886</v>
+        <v>15.09743149151523</v>
       </c>
       <c r="L4">
-        <v>6.081080928955731</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>9.048191120200102</v>
+        <v>10.57768377540032</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.422722447200109</v>
       </c>
       <c r="O4">
-        <v>18.79036179217246</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>8.825145607815051</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>14.54947066605254</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.30221714128354</v>
+        <v>11.56357218338634</v>
       </c>
       <c r="C5">
-        <v>8.208149682821674</v>
+        <v>8.16559485591274</v>
       </c>
       <c r="D5">
-        <v>5.333807859573766</v>
+        <v>5.176639617704999</v>
       </c>
       <c r="E5">
-        <v>8.296344971963405</v>
+        <v>8.428179648658764</v>
       </c>
       <c r="F5">
-        <v>22.0193905794051</v>
+        <v>17.07348268167893</v>
       </c>
       <c r="G5">
-        <v>2.127621486952247</v>
+        <v>21.20783312227923</v>
       </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
+        <v>2.783065808186699</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>9.123454887478543</v>
       </c>
       <c r="K5">
-        <v>9.761150210457153</v>
+        <v>15.13783296333387</v>
       </c>
       <c r="L5">
-        <v>6.063279031131614</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>8.968035973452977</v>
+        <v>10.43146173929332</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.379493336361754</v>
       </c>
       <c r="O5">
-        <v>18.80163768104899</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>8.720103225225174</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>14.57105757630522</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.26165668537986</v>
+        <v>11.52550062415437</v>
       </c>
       <c r="C6">
-        <v>8.208891015025781</v>
+        <v>8.161659826661843</v>
       </c>
       <c r="D6">
-        <v>5.329629980054319</v>
+        <v>5.166995188967958</v>
       </c>
       <c r="E6">
-        <v>8.297470044193282</v>
+        <v>8.423335322042572</v>
       </c>
       <c r="F6">
-        <v>22.01115990283804</v>
+        <v>17.06840988676089</v>
       </c>
       <c r="G6">
-        <v>2.127844494801439</v>
+        <v>21.20623922104916</v>
       </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
+        <v>2.791109052010166</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>9.126624087601591</v>
       </c>
       <c r="K6">
-        <v>9.734935646100727</v>
+        <v>15.14464140987989</v>
       </c>
       <c r="L6">
-        <v>6.060358164929038</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>8.954711321870546</v>
+        <v>10.40696031031313</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.372281682459244</v>
       </c>
       <c r="O6">
-        <v>18.80370415448803</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>8.702541600575621</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>14.57476388122956</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.54032482808967</v>
+        <v>11.78710119959</v>
       </c>
       <c r="C7">
-        <v>8.203828382500541</v>
+        <v>8.188893835301407</v>
       </c>
       <c r="D7">
-        <v>5.358518598085634</v>
+        <v>5.233480748807562</v>
       </c>
       <c r="E7">
-        <v>8.290006134484774</v>
+        <v>8.456860512801157</v>
       </c>
       <c r="F7">
-        <v>22.06973227644734</v>
+        <v>17.10462144691265</v>
       </c>
       <c r="G7">
-        <v>2.126305671106048</v>
+        <v>21.21881666160488</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
+        <v>2.735643557387186</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>9.104946362218644</v>
       </c>
       <c r="K7">
-        <v>9.915380028877433</v>
+        <v>15.09796964218183</v>
       </c>
       <c r="L7">
-        <v>6.080838495720352</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>9.047111200648015</v>
+        <v>10.575726692599</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.422141713592568</v>
       </c>
       <c r="O7">
-        <v>18.79050077365001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>8.823737058614405</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>14.54975358654418</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.69945825705106</v>
+        <v>12.87561090318887</v>
       </c>
       <c r="C8">
-        <v>8.183552795966825</v>
+        <v>8.307055725079747</v>
       </c>
       <c r="D8">
-        <v>5.4831583338424</v>
+        <v>5.515230532319226</v>
       </c>
       <c r="E8">
-        <v>8.265781917440664</v>
+        <v>8.602276739534149</v>
       </c>
       <c r="F8">
-        <v>22.36436659718962</v>
+        <v>17.28944916431811</v>
       </c>
       <c r="G8">
-        <v>2.119736513969897</v>
+        <v>21.31270599107928</v>
       </c>
       <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
+        <v>2.499792705763112</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>9.017350028630505</v>
       </c>
       <c r="K8">
-        <v>10.67369681137227</v>
+        <v>14.90681941419648</v>
       </c>
       <c r="L8">
-        <v>6.176270536608578</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>9.451852297987202</v>
+        <v>11.28749195057745</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.637041844113043</v>
       </c>
       <c r="O8">
-        <v>18.76127390023717</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>9.340332630112403</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>14.45755296090939</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.72225812987952</v>
+        <v>14.77312066065001</v>
       </c>
       <c r="C9">
-        <v>8.151326388342635</v>
+        <v>8.531075425041966</v>
       </c>
       <c r="D9">
-        <v>5.716421735817045</v>
+        <v>6.02335490040968</v>
       </c>
       <c r="E9">
-        <v>8.25121751769796</v>
+        <v>8.877877028867678</v>
       </c>
       <c r="F9">
-        <v>23.07580330928546</v>
+        <v>17.74383924445715</v>
       </c>
       <c r="G9">
-        <v>2.107612187749664</v>
+        <v>21.64293413234635</v>
       </c>
       <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
+        <v>2.068434890060266</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>8.876025055674397</v>
       </c>
       <c r="K9">
-        <v>12.0209847110671</v>
+        <v>14.5882130759276</v>
       </c>
       <c r="L9">
-        <v>6.381046923167364</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>10.2276576505671</v>
+        <v>12.55880345122021</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>7.037849991469286</v>
       </c>
       <c r="O9">
-        <v>18.81621518142924</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>10.28104060026527</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>14.34654161339224</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.05907306011277</v>
+        <v>16.01439602663716</v>
       </c>
       <c r="C10">
-        <v>8.132366002938614</v>
+        <v>8.730229574030737</v>
       </c>
       <c r="D10">
-        <v>5.880234451668165</v>
+        <v>6.388598948511626</v>
       </c>
       <c r="E10">
-        <v>8.262118626009169</v>
+        <v>8.966758280855959</v>
       </c>
       <c r="F10">
-        <v>23.68245351988166</v>
+        <v>18.03721159445893</v>
       </c>
       <c r="G10">
-        <v>2.09912837997917</v>
+        <v>21.81154000052576</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
+        <v>1.800936434171457</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>8.764907125521864</v>
       </c>
       <c r="K10">
-        <v>12.92392418466527</v>
+        <v>14.32430971560768</v>
       </c>
       <c r="L10">
-        <v>6.541708761499132</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>10.78131389869836</v>
+        <v>13.43455127437885</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>7.220640232941999</v>
       </c>
       <c r="O10">
-        <v>18.93223911480404</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>10.84619215495266</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>14.24209433792182</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.63551511728933</v>
+        <v>16.47435496094732</v>
       </c>
       <c r="C11">
-        <v>8.124795894505397</v>
+        <v>9.207918876668899</v>
       </c>
       <c r="D11">
-        <v>5.952970249052352</v>
+        <v>6.730110622098344</v>
       </c>
       <c r="E11">
-        <v>8.272100349635068</v>
+        <v>8.232214618070225</v>
       </c>
       <c r="F11">
-        <v>23.97702245164731</v>
+        <v>17.33495451097832</v>
       </c>
       <c r="G11">
-        <v>2.095352011599108</v>
+        <v>20.44248719333928</v>
       </c>
       <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
+        <v>2.798978917961117</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>8.483292358601343</v>
       </c>
       <c r="K11">
-        <v>13.31568872166683</v>
+        <v>13.64584623767008</v>
       </c>
       <c r="L11">
-        <v>6.616894835290547</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>11.02870456961317</v>
+        <v>14.00250911185524</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.510308867205188</v>
       </c>
       <c r="O11">
-        <v>19.00298407450378</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>10.4297463923706</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>13.60346160091732</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.84930253430214</v>
+        <v>16.61136630220141</v>
       </c>
       <c r="C12">
-        <v>8.122083957289963</v>
+        <v>9.62527942458758</v>
       </c>
       <c r="D12">
-        <v>5.980246040388339</v>
+        <v>6.948736349125964</v>
       </c>
       <c r="E12">
-        <v>8.276630023870124</v>
+        <v>7.83703298940919</v>
       </c>
       <c r="F12">
-        <v>24.0912617128962</v>
+        <v>16.66334351784535</v>
       </c>
       <c r="G12">
-        <v>2.093933149432754</v>
+        <v>19.23420227652358</v>
       </c>
       <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
+        <v>4.177144359125333</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>8.268797688508387</v>
       </c>
       <c r="K12">
-        <v>13.4613091458436</v>
+        <v>13.14922538517914</v>
       </c>
       <c r="L12">
-        <v>6.645657551798492</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>11.12167782847189</v>
+        <v>14.30835342609544</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>5.95035213980712</v>
       </c>
       <c r="O12">
-        <v>19.03248096930302</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>9.954705306982735</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>13.08408811236007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.80345874006073</v>
+        <v>16.51272348127502</v>
       </c>
       <c r="C13">
-        <v>8.122661090638017</v>
+        <v>10.01357912967167</v>
       </c>
       <c r="D13">
-        <v>5.974383784063272</v>
+        <v>7.089922157221388</v>
       </c>
       <c r="E13">
-        <v>8.275620687205761</v>
+        <v>7.708604559497556</v>
       </c>
       <c r="F13">
-        <v>24.06653826026587</v>
+        <v>15.96587854465544</v>
       </c>
       <c r="G13">
-        <v>2.094238242817245</v>
+        <v>18.07014773371743</v>
       </c>
       <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
+        <v>5.598856712566523</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>8.093823542926444</v>
       </c>
       <c r="K13">
-        <v>13.43006865230244</v>
+        <v>12.76876465473552</v>
       </c>
       <c r="L13">
-        <v>6.639450191204353</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>11.10168680567875</v>
+        <v>14.43802778938902</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.491120139316974</v>
       </c>
       <c r="O13">
-        <v>19.02600591585548</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>9.395405194495906</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>12.62662710027256</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.65319336346264</v>
+        <v>16.33578915884949</v>
       </c>
       <c r="C14">
-        <v>8.124569663292698</v>
+        <v>10.2756724916962</v>
       </c>
       <c r="D14">
-        <v>5.955219670296557</v>
+        <v>7.155253847546615</v>
       </c>
       <c r="E14">
-        <v>8.272457822341389</v>
+        <v>7.782335943710958</v>
       </c>
       <c r="F14">
-        <v>23.98636693811896</v>
+        <v>15.46558323795139</v>
       </c>
       <c r="G14">
-        <v>2.095235061702061</v>
+        <v>17.28290965564829</v>
       </c>
       <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
+        <v>6.606582963336916</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>7.991130849924956</v>
       </c>
       <c r="K14">
-        <v>13.32772374516831</v>
+        <v>12.56416788714093</v>
       </c>
       <c r="L14">
-        <v>6.619255380838032</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>11.03636806795867</v>
+        <v>14.45072496969266</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.244898247647472</v>
       </c>
       <c r="O14">
-        <v>19.00535583746633</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>8.96088530945929</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>12.33949954856977</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.56056734610226</v>
+        <v>16.24134818529112</v>
       </c>
       <c r="C15">
-        <v>8.125758958922267</v>
+        <v>10.32623124123621</v>
       </c>
       <c r="D15">
-        <v>5.943445921332343</v>
+        <v>7.154120807425078</v>
       </c>
       <c r="E15">
-        <v>8.270618947160843</v>
+        <v>7.819772553793476</v>
       </c>
       <c r="F15">
-        <v>23.93761077115198</v>
+        <v>15.34071984282672</v>
       </c>
       <c r="G15">
-        <v>2.095847072808064</v>
+        <v>17.10492916793958</v>
       </c>
       <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
+        <v>6.841180848921521</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>7.974877316638604</v>
       </c>
       <c r="K15">
-        <v>13.26467878026395</v>
+        <v>12.53711130354382</v>
       </c>
       <c r="L15">
-        <v>6.606923114944771</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>10.99626445602687</v>
+        <v>14.41546481828039</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.19615240021966</v>
       </c>
       <c r="O15">
-        <v>18.99306329879702</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>8.836847223233658</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>12.28402202052595</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.02076854076054</v>
+        <v>15.74766518371248</v>
       </c>
       <c r="C16">
-        <v>8.1328822062478</v>
+        <v>10.15943072086695</v>
       </c>
       <c r="D16">
-        <v>5.87544412783153</v>
+        <v>6.981191785837365</v>
       </c>
       <c r="E16">
-        <v>8.261569714825693</v>
+        <v>7.794599403839129</v>
       </c>
       <c r="F16">
-        <v>23.66357864997289</v>
+        <v>15.33725778329339</v>
       </c>
       <c r="G16">
-        <v>2.099376779756578</v>
+        <v>17.2547504838926</v>
       </c>
       <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
+        <v>6.642112466159593</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>8.058834399260649</v>
       </c>
       <c r="K16">
-        <v>12.89793903405782</v>
+        <v>12.73354410475066</v>
       </c>
       <c r="L16">
-        <v>6.536836519095857</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>10.76505056048215</v>
+        <v>14.03631561068256</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.199599591176478</v>
       </c>
       <c r="O16">
-        <v>18.92798789214695</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>8.684886875317636</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>12.42323820870241</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.681545094543</v>
+        <v>15.45926426119051</v>
       </c>
       <c r="C17">
-        <v>8.137524346544067</v>
+        <v>9.886178326423105</v>
       </c>
       <c r="D17">
-        <v>5.833262161659177</v>
+        <v>6.809914095051747</v>
       </c>
       <c r="E17">
-        <v>8.257324248730473</v>
+        <v>7.711824452634716</v>
       </c>
       <c r="F17">
-        <v>23.50024692985986</v>
+        <v>15.60590682710838</v>
       </c>
       <c r="G17">
-        <v>2.101562860499323</v>
+        <v>17.78801931820161</v>
       </c>
       <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
+        <v>5.923483291978751</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>8.177203555283903</v>
       </c>
       <c r="K17">
-        <v>12.66808910316323</v>
+        <v>12.98813721653805</v>
       </c>
       <c r="L17">
-        <v>6.494370902611671</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>10.62201360923052</v>
+        <v>13.73262988424892</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.319357791442171</v>
       </c>
       <c r="O17">
-        <v>18.89275609810349</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>8.806022111153489</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>12.68077218964385</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.48344718601147</v>
+        <v>15.32280176552056</v>
       </c>
       <c r="C18">
-        <v>8.140293495264537</v>
+        <v>9.511155494344317</v>
       </c>
       <c r="D18">
-        <v>5.808832956100394</v>
+        <v>6.624091551970483</v>
       </c>
       <c r="E18">
-        <v>8.255353467994576</v>
+        <v>7.715503675376</v>
       </c>
       <c r="F18">
-        <v>23.40805293327371</v>
+        <v>16.13306612486317</v>
       </c>
       <c r="G18">
-        <v>2.102828093165695</v>
+        <v>18.71291191230102</v>
       </c>
       <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
+        <v>4.70637803361722</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>8.339985460692724</v>
       </c>
       <c r="K18">
-        <v>12.53409792780064</v>
+        <v>13.33823526323499</v>
       </c>
       <c r="L18">
-        <v>6.470144106329877</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>10.53932502519075</v>
+        <v>13.46565591789434</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.626153292372258</v>
       </c>
       <c r="O18">
-        <v>18.87417532096048</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>9.177622626645867</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>13.07247049271298</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.41586015424244</v>
+        <v>15.32173316834898</v>
       </c>
       <c r="C19">
-        <v>8.141248017915569</v>
+        <v>9.115640667195468</v>
       </c>
       <c r="D19">
-        <v>5.800533278469551</v>
+        <v>6.444811110365385</v>
       </c>
       <c r="E19">
-        <v>8.254766273174848</v>
+        <v>7.999162864530729</v>
       </c>
       <c r="F19">
-        <v>23.37713759757457</v>
+        <v>16.8263592161173</v>
       </c>
       <c r="G19">
-        <v>2.103257851093217</v>
+        <v>19.89760431522187</v>
       </c>
       <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
+        <v>3.287668089868161</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>8.530387111634113</v>
       </c>
       <c r="K19">
-        <v>12.48842398899892</v>
+        <v>13.76572512354089</v>
       </c>
       <c r="L19">
-        <v>6.461975717870419</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>10.51125854213358</v>
+        <v>13.25383334709465</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.149298933784221</v>
       </c>
       <c r="O19">
-        <v>18.86816955582394</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>9.719777938148015</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>13.55279991722248</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.71796459478405</v>
+        <v>15.69765374212365</v>
       </c>
       <c r="C20">
-        <v>8.137019904349895</v>
+        <v>8.679814149570285</v>
       </c>
       <c r="D20">
-        <v>5.837769898499285</v>
+        <v>6.295737137735872</v>
       </c>
       <c r="E20">
-        <v>8.257727230394545</v>
+        <v>8.93870009153639</v>
       </c>
       <c r="F20">
-        <v>23.51745260121585</v>
+        <v>17.95181088911262</v>
       </c>
       <c r="G20">
-        <v>2.101329340691695</v>
+        <v>21.75289284633386</v>
       </c>
       <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
+        <v>1.869344781950927</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>8.791518295740218</v>
       </c>
       <c r="K20">
-        <v>12.69274206667605</v>
+        <v>14.38814787951453</v>
       </c>
       <c r="L20">
-        <v>6.498870994592691</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>10.63728385375012</v>
+        <v>13.21121814786061</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>7.168895315716004</v>
       </c>
       <c r="O20">
-        <v>18.89633143287986</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>10.69730093766238</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>14.2631976572363</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.69745157580765</v>
+        <v>16.61856601180977</v>
       </c>
       <c r="C21">
-        <v>8.124004845556163</v>
+        <v>8.769813702700981</v>
       </c>
       <c r="D21">
-        <v>5.960855984353743</v>
+        <v>6.534174161921674</v>
       </c>
       <c r="E21">
-        <v>8.273366261556523</v>
+        <v>9.171565860273025</v>
       </c>
       <c r="F21">
-        <v>24.00984200742677</v>
+        <v>18.34650772762438</v>
       </c>
       <c r="G21">
-        <v>2.094941975094554</v>
+        <v>22.17693890961279</v>
       </c>
       <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
+        <v>1.623140056218642</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>8.755301389724906</v>
       </c>
       <c r="K21">
-        <v>13.35785905701296</v>
+        <v>14.30235124945311</v>
       </c>
       <c r="L21">
-        <v>6.62517926062332</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>11.05557345645453</v>
+        <v>13.82381210274509</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>7.455514639938719</v>
       </c>
       <c r="O21">
-        <v>19.01134680845345</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>11.23432785502996</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>14.30695381310407</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.31140902021385</v>
+        <v>17.1899961655319</v>
       </c>
       <c r="C22">
-        <v>8.116402050100344</v>
+        <v>8.847716861004287</v>
       </c>
       <c r="D22">
-        <v>6.03973511342179</v>
+        <v>6.695085127789392</v>
       </c>
       <c r="E22">
-        <v>8.28797077652581</v>
+        <v>9.267405304111637</v>
       </c>
       <c r="F22">
-        <v>24.34734607010748</v>
+        <v>18.56493693096487</v>
       </c>
       <c r="G22">
-        <v>2.090832160177551</v>
+        <v>22.38619442675745</v>
       </c>
       <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
+        <v>1.639262968534808</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>8.721847822493421</v>
       </c>
       <c r="K22">
-        <v>13.77662981666411</v>
+        <v>14.21992285312342</v>
       </c>
       <c r="L22">
-        <v>6.709422860866741</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>11.32479859427612</v>
+        <v>14.22005956569059</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>7.589761942601453</v>
       </c>
       <c r="O22">
-        <v>19.10235295031293</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>11.53569613339202</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>14.30982481437552</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.98610577508572</v>
+        <v>16.88737371630908</v>
       </c>
       <c r="C23">
-        <v>8.12037609125681</v>
+        <v>8.806231205433569</v>
       </c>
       <c r="D23">
-        <v>5.997782468491336</v>
+        <v>6.60972179900428</v>
       </c>
       <c r="E23">
-        <v>8.27976579197159</v>
+        <v>9.216367642460934</v>
       </c>
       <c r="F23">
-        <v>24.16577245344298</v>
+        <v>18.4473995586932</v>
       </c>
       <c r="G23">
-        <v>2.093019990787095</v>
+        <v>22.27275951330569</v>
       </c>
       <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
+        <v>1.564933133632647</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>8.739314744760907</v>
       </c>
       <c r="K23">
-        <v>13.55457952409459</v>
+        <v>14.26317642759616</v>
       </c>
       <c r="L23">
-        <v>6.664308860106338</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>11.18150691885242</v>
+        <v>14.00997136792662</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>7.518393485205932</v>
       </c>
       <c r="O23">
-        <v>19.05229153851144</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>11.37576647339651</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>14.30737034369271</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.70150891732209</v>
+        <v>15.68925614213869</v>
       </c>
       <c r="C24">
-        <v>8.137247650412331</v>
+        <v>8.647099249773769</v>
       </c>
       <c r="D24">
-        <v>5.835732504962502</v>
+        <v>6.275140046919946</v>
       </c>
       <c r="E24">
-        <v>8.257543580538572</v>
+        <v>9.020604118311169</v>
       </c>
       <c r="F24">
-        <v>23.50966859981553</v>
+        <v>18.02331339217055</v>
       </c>
       <c r="G24">
-        <v>2.101434888695211</v>
+        <v>21.88120679955527</v>
       </c>
       <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
+        <v>1.850629161667414</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>8.813805874491159</v>
       </c>
       <c r="K24">
-        <v>12.68160221583812</v>
+        <v>14.44284629085223</v>
       </c>
       <c r="L24">
-        <v>6.496835918945457</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>10.63038158752573</v>
+        <v>13.18377444798726</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>7.242027927007713</v>
       </c>
       <c r="O24">
-        <v>18.8947098178908</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>10.75018589792688</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>14.31788021875124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.20149969988779</v>
+        <v>14.28514310713744</v>
       </c>
       <c r="C25">
-        <v>8.159225998717549</v>
+        <v>8.471333865619938</v>
       </c>
       <c r="D25">
-        <v>5.654594407394702</v>
+        <v>5.890848911984679</v>
       </c>
       <c r="E25">
-        <v>8.25147514641937</v>
+        <v>8.804385047609124</v>
       </c>
       <c r="F25">
-        <v>22.86874022707116</v>
+        <v>17.61092620401393</v>
       </c>
       <c r="G25">
-        <v>2.11081481649153</v>
+        <v>21.53724099016536</v>
       </c>
       <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
+        <v>2.181880913046359</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>8.910850965442211</v>
       </c>
       <c r="K25">
-        <v>11.67169225246742</v>
+        <v>14.66807902473576</v>
       </c>
       <c r="L25">
-        <v>6.323815101663125</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>10.02029638882347</v>
+        <v>12.22865472738489</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>6.931815468426594</v>
       </c>
       <c r="O25">
-        <v>18.78858641212641</v>
+        <v>10.03484522455378</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>14.36866607917558</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_44/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_44/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1205 +421,1355 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.15449592470392</v>
+        <v>13.14332066116522</v>
       </c>
       <c r="C2">
-        <v>8.338564930800478</v>
+        <v>8.054117372292779</v>
       </c>
       <c r="D2">
-        <v>5.588644800970745</v>
+        <v>5.619657933000351</v>
       </c>
       <c r="E2">
-        <v>8.641045626674577</v>
+        <v>8.49627258847697</v>
       </c>
       <c r="F2">
-        <v>17.34569118170044</v>
+        <v>16.8809584274735</v>
       </c>
       <c r="G2">
-        <v>21.34776673223002</v>
+        <v>19.96087282211068</v>
       </c>
       <c r="H2">
-        <v>2.438027405613027</v>
+        <v>2.339683562261475</v>
       </c>
       <c r="J2">
-        <v>8.995625104331754</v>
+        <v>9.196550206739241</v>
       </c>
       <c r="K2">
-        <v>14.85872647399246</v>
+        <v>14.3321020558076</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>11.96763433782274</v>
       </c>
       <c r="M2">
-        <v>11.47209849866932</v>
+        <v>9.210390068440828</v>
       </c>
       <c r="N2">
-        <v>6.693944309520243</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>9.475618792940764</v>
+        <v>11.55001579285737</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>6.815677694454034</v>
       </c>
       <c r="Q2">
-        <v>14.43713913102717</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>9.448848792670619</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>14.05861198278757</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.32767178524347</v>
+        <v>12.34523748118723</v>
       </c>
       <c r="C3">
-        <v>8.246607032508191</v>
+        <v>7.885349899103016</v>
       </c>
       <c r="D3">
-        <v>5.372411279890358</v>
+        <v>5.383426933150336</v>
       </c>
       <c r="E3">
-        <v>8.527892501765921</v>
+        <v>8.40053690660398</v>
       </c>
       <c r="F3">
-        <v>17.18951506099877</v>
+        <v>16.76083891507636</v>
       </c>
       <c r="G3">
-        <v>21.25698174685199</v>
+        <v>19.9651703203232</v>
       </c>
       <c r="H3">
-        <v>2.619546399733085</v>
+        <v>2.50734608417234</v>
       </c>
       <c r="J3">
-        <v>9.060904284219665</v>
+        <v>9.235188370093752</v>
       </c>
       <c r="K3">
-        <v>15.00239378666884</v>
+        <v>14.48961163839825</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>12.14151206754297</v>
       </c>
       <c r="M3">
-        <v>10.92736946862837</v>
+        <v>9.304961179267082</v>
       </c>
       <c r="N3">
-        <v>6.527399270075161</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>9.077910379095924</v>
+        <v>10.99377200331186</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>6.655632349932968</v>
       </c>
       <c r="Q3">
-        <v>14.50152511690323</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>9.050579293012383</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>14.14298865829868</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.79012624280314</v>
+        <v>11.82676287993408</v>
       </c>
       <c r="C4">
-        <v>8.189211425716573</v>
+        <v>7.780371827053322</v>
       </c>
       <c r="D4">
-        <v>5.234252485494588</v>
+        <v>5.232430797364208</v>
       </c>
       <c r="E4">
-        <v>8.457251441840446</v>
+        <v>8.3406668127878</v>
       </c>
       <c r="F4">
-        <v>17.10505874200707</v>
+        <v>16.697080356817</v>
       </c>
       <c r="G4">
-        <v>21.21898441908587</v>
+        <v>19.98645316416755</v>
       </c>
       <c r="H4">
-        <v>2.734999457179168</v>
+        <v>2.614015121216586</v>
       </c>
       <c r="J4">
-        <v>9.104697052523417</v>
+        <v>9.260978577292176</v>
       </c>
       <c r="K4">
-        <v>15.09743149151523</v>
+        <v>14.59174560699555</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>12.25314815057203</v>
       </c>
       <c r="M4">
-        <v>10.57768377540032</v>
+        <v>9.382052896638328</v>
       </c>
       <c r="N4">
-        <v>6.422722447200109</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>8.825145607815051</v>
+        <v>10.63684091862757</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>6.555414978042365</v>
       </c>
       <c r="Q4">
-        <v>14.54947066605254</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>8.797196248867614</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>14.20192003069734</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.56357218338634</v>
+        <v>11.60835564531288</v>
       </c>
       <c r="C5">
-        <v>8.16559485591274</v>
+        <v>7.737292007741316</v>
       </c>
       <c r="D5">
-        <v>5.176639617704999</v>
+        <v>5.169454907598771</v>
       </c>
       <c r="E5">
-        <v>8.428179648658764</v>
+        <v>8.315999697375197</v>
       </c>
       <c r="F5">
-        <v>17.07348268167893</v>
+        <v>16.67356489902432</v>
       </c>
       <c r="G5">
-        <v>21.20783312227923</v>
+        <v>19.99962287278837</v>
       </c>
       <c r="H5">
-        <v>2.783065808186699</v>
+        <v>2.658430782235037</v>
       </c>
       <c r="J5">
-        <v>9.123454887478543</v>
+        <v>9.27199955163071</v>
       </c>
       <c r="K5">
-        <v>15.13783296333387</v>
+        <v>14.63470146535516</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>12.29987880765018</v>
       </c>
       <c r="M5">
-        <v>10.43146173929332</v>
+        <v>9.418121509446358</v>
       </c>
       <c r="N5">
-        <v>6.379493336361754</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>8.720103225225174</v>
+        <v>10.48763460222595</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>6.514122722724361</v>
       </c>
       <c r="Q5">
-        <v>14.57105757630522</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>8.691831677715371</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>14.2276686273368</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.52550062415437</v>
+        <v>11.57166008115315</v>
       </c>
       <c r="C6">
-        <v>8.161659826661843</v>
+        <v>7.730121701139733</v>
       </c>
       <c r="D6">
-        <v>5.166995188967958</v>
+        <v>5.158912291389273</v>
       </c>
       <c r="E6">
-        <v>8.423335322042572</v>
+        <v>8.311887581561162</v>
       </c>
       <c r="F6">
-        <v>17.06840988676089</v>
+        <v>16.66980768553373</v>
       </c>
       <c r="G6">
-        <v>21.20623922104916</v>
+        <v>20.00207561981309</v>
       </c>
       <c r="H6">
-        <v>2.791109052010166</v>
+        <v>2.665863487006122</v>
       </c>
       <c r="J6">
-        <v>9.126624087601591</v>
+        <v>9.273860218119211</v>
       </c>
       <c r="K6">
-        <v>15.14464140987989</v>
+        <v>14.64191412764282</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>12.30771353128548</v>
       </c>
       <c r="M6">
-        <v>10.40696031031313</v>
+        <v>9.424387711831601</v>
       </c>
       <c r="N6">
-        <v>6.372281682459244</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>8.702541600575621</v>
+        <v>10.46263612052694</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>6.507239950875459</v>
       </c>
       <c r="Q6">
-        <v>14.57476388122956</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>8.674212270673515</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>14.23204721558486</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.78710119959</v>
+        <v>11.82445954702092</v>
       </c>
       <c r="C7">
-        <v>8.188893835301407</v>
+        <v>7.777442769491288</v>
       </c>
       <c r="D7">
-        <v>5.233480748807562</v>
+        <v>5.234535376746365</v>
       </c>
       <c r="E7">
-        <v>8.456860512801157</v>
+        <v>8.340367334496403</v>
       </c>
       <c r="F7">
-        <v>17.10462144691265</v>
+        <v>16.68438757052064</v>
       </c>
       <c r="G7">
-        <v>21.21881666160488</v>
+        <v>20.05424881939528</v>
       </c>
       <c r="H7">
-        <v>2.735643557387186</v>
+        <v>2.615065787495975</v>
       </c>
       <c r="J7">
-        <v>9.104946362218644</v>
+        <v>9.231912004118712</v>
       </c>
       <c r="K7">
-        <v>15.09796964218183</v>
+        <v>14.58682428939635</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>12.24842757122171</v>
       </c>
       <c r="M7">
-        <v>10.575726692599</v>
+        <v>9.379612064261917</v>
       </c>
       <c r="N7">
-        <v>6.422141713592568</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>8.823737058614405</v>
+        <v>10.63371998803662</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>6.554385102709746</v>
       </c>
       <c r="Q7">
-        <v>14.54975358654418</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>8.79593830885146</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>14.19403480090377</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.87561090318887</v>
+        <v>12.8759773115224</v>
       </c>
       <c r="C8">
-        <v>8.307055725079747</v>
+        <v>7.988540185838677</v>
       </c>
       <c r="D8">
-        <v>5.515230532319226</v>
+        <v>5.548914776330261</v>
       </c>
       <c r="E8">
-        <v>8.602276739534149</v>
+        <v>8.463734553653003</v>
       </c>
       <c r="F8">
-        <v>17.28944916431811</v>
+        <v>16.79699066638247</v>
       </c>
       <c r="G8">
-        <v>21.31270599107928</v>
+        <v>20.18382462753202</v>
       </c>
       <c r="H8">
-        <v>2.499792705763112</v>
+        <v>2.398123052241153</v>
       </c>
       <c r="J8">
-        <v>9.017350028630505</v>
+        <v>9.114500888556156</v>
       </c>
       <c r="K8">
-        <v>14.90681941419648</v>
+        <v>14.3672703970473</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>12.01061517684851</v>
       </c>
       <c r="M8">
-        <v>11.28749195057745</v>
+        <v>9.227535387863115</v>
       </c>
       <c r="N8">
-        <v>6.637041844113043</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>9.340332630112403</v>
+        <v>11.3580242832223</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>6.759438651492249</v>
       </c>
       <c r="Q8">
-        <v>14.45755296090939</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>9.313886546542198</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>14.05904424287543</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.77312066065001</v>
+        <v>14.70932665930715</v>
       </c>
       <c r="C9">
-        <v>8.531075425041966</v>
+        <v>8.398718862949798</v>
       </c>
       <c r="D9">
-        <v>6.02335490040968</v>
+        <v>6.105365201039422</v>
       </c>
       <c r="E9">
-        <v>8.877877028867678</v>
+        <v>8.696723162795838</v>
       </c>
       <c r="F9">
-        <v>17.74383924445715</v>
+        <v>17.14440070139535</v>
       </c>
       <c r="G9">
-        <v>21.64293413234635</v>
+        <v>20.34366678994666</v>
       </c>
       <c r="H9">
-        <v>2.068434890060266</v>
+        <v>2.000083809538315</v>
       </c>
       <c r="J9">
-        <v>8.876025055674397</v>
+        <v>9.004130585821231</v>
       </c>
       <c r="K9">
-        <v>14.5882130759276</v>
+        <v>14.00100760142964</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>11.60198520645032</v>
       </c>
       <c r="M9">
-        <v>12.55880345122021</v>
+        <v>9.095893493270379</v>
       </c>
       <c r="N9">
-        <v>7.037849991469286</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>10.28104060026527</v>
+        <v>12.65619507434904</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>7.146303576515926</v>
       </c>
       <c r="Q9">
-        <v>14.34654161339224</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>10.25456231257551</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>13.88343244313494</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.01439602663716</v>
+        <v>15.91484649821023</v>
       </c>
       <c r="C10">
-        <v>8.730229574030737</v>
+        <v>8.720198603180842</v>
       </c>
       <c r="D10">
-        <v>6.388598948511626</v>
+        <v>6.516184939452405</v>
       </c>
       <c r="E10">
-        <v>8.966758280855959</v>
+        <v>8.762065927631772</v>
       </c>
       <c r="F10">
-        <v>18.03721159445893</v>
+        <v>17.29673519431725</v>
       </c>
       <c r="G10">
-        <v>21.81154000052576</v>
+        <v>20.80336833595352</v>
       </c>
       <c r="H10">
-        <v>1.800936434171457</v>
+        <v>1.757704465858774</v>
       </c>
       <c r="J10">
-        <v>8.764907125521864</v>
+        <v>8.754920536118298</v>
       </c>
       <c r="K10">
-        <v>14.32430971560768</v>
+        <v>13.67434679852353</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>11.26457448349781</v>
       </c>
       <c r="M10">
-        <v>13.43455127437885</v>
+        <v>9.026025393572784</v>
       </c>
       <c r="N10">
-        <v>7.220640232941999</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>10.84619215495266</v>
+        <v>13.54324226799856</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>7.317996914146735</v>
       </c>
       <c r="Q10">
-        <v>14.24209433792182</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>10.81936956482941</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>13.68641543956064</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.47435496094732</v>
+        <v>16.38818404887797</v>
       </c>
       <c r="C11">
-        <v>9.207918876668899</v>
+        <v>9.238718304385056</v>
       </c>
       <c r="D11">
-        <v>6.730110622098344</v>
+        <v>6.890001976461047</v>
       </c>
       <c r="E11">
-        <v>8.232214618070225</v>
+        <v>8.071638134223369</v>
       </c>
       <c r="F11">
-        <v>17.33495451097832</v>
+        <v>16.50720483017306</v>
       </c>
       <c r="G11">
-        <v>20.44248719333928</v>
+        <v>20.3614836403463</v>
       </c>
       <c r="H11">
-        <v>2.798978917961117</v>
+        <v>2.777649338222315</v>
       </c>
       <c r="J11">
-        <v>8.483292358601343</v>
+        <v>8.257072652012438</v>
       </c>
       <c r="K11">
-        <v>13.64584623767008</v>
+        <v>13.021128160235</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>10.78653702929137</v>
       </c>
       <c r="M11">
-        <v>14.00250911185524</v>
+        <v>8.554217170596644</v>
       </c>
       <c r="N11">
-        <v>6.510308867205188</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>10.4297463923706</v>
+        <v>14.09156855827933</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>6.592529059946979</v>
       </c>
       <c r="Q11">
-        <v>13.60346160091732</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>10.40626572073317</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>13.00689659138709</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.61136630220141</v>
+        <v>16.54206895471743</v>
       </c>
       <c r="C12">
-        <v>9.62527942458758</v>
+        <v>9.654735240296079</v>
       </c>
       <c r="D12">
-        <v>6.948736349125964</v>
+        <v>7.117126583995137</v>
       </c>
       <c r="E12">
-        <v>7.83703298940919</v>
+        <v>7.716144417795559</v>
       </c>
       <c r="F12">
-        <v>16.66334351784535</v>
+        <v>15.8366493976292</v>
       </c>
       <c r="G12">
-        <v>19.23420227652358</v>
+        <v>19.61361588373125</v>
       </c>
       <c r="H12">
-        <v>4.177144359125333</v>
+        <v>4.163758457944011</v>
       </c>
       <c r="J12">
-        <v>8.268797688508387</v>
+        <v>8.020680782653315</v>
       </c>
       <c r="K12">
-        <v>13.14922538517914</v>
+        <v>12.58446240303471</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>10.50143470174575</v>
       </c>
       <c r="M12">
-        <v>14.30835342609544</v>
+        <v>8.187399940132426</v>
       </c>
       <c r="N12">
-        <v>5.95035213980712</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>9.954705306982735</v>
+        <v>14.38076603004459</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>6.02294622188483</v>
       </c>
       <c r="Q12">
-        <v>13.08408811236007</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>9.933929404550245</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>12.50741630911734</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.51272348127502</v>
+        <v>16.46301338388014</v>
       </c>
       <c r="C13">
-        <v>10.01357912967167</v>
+        <v>10.0214956553723</v>
       </c>
       <c r="D13">
-        <v>7.089922157221388</v>
+        <v>7.241633922880876</v>
       </c>
       <c r="E13">
-        <v>7.708604559497556</v>
+        <v>7.624222647046667</v>
       </c>
       <c r="F13">
-        <v>15.96587854465544</v>
+        <v>15.2361973742046</v>
       </c>
       <c r="G13">
-        <v>18.07014773371743</v>
+        <v>18.40097770013479</v>
       </c>
       <c r="H13">
-        <v>5.598856712566523</v>
+        <v>5.58738481358399</v>
       </c>
       <c r="J13">
-        <v>8.093823542926444</v>
+        <v>7.952962575972881</v>
       </c>
       <c r="K13">
-        <v>12.76876465473552</v>
+        <v>12.29466090933869</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>10.33005861790021</v>
       </c>
       <c r="M13">
-        <v>14.43802778938902</v>
+        <v>7.900586207490578</v>
       </c>
       <c r="N13">
-        <v>5.491120139316974</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>9.395405194495906</v>
+        <v>14.49678614280213</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>5.559046375140178</v>
       </c>
       <c r="Q13">
-        <v>12.62662710027256</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>9.37660019667425</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>12.13132389148234</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.33578915884949</v>
+        <v>16.30130447195916</v>
       </c>
       <c r="C14">
-        <v>10.2756724916962</v>
+        <v>10.25978290412754</v>
       </c>
       <c r="D14">
-        <v>7.155253847546615</v>
+        <v>7.283634728602803</v>
       </c>
       <c r="E14">
-        <v>7.782335943710958</v>
+        <v>7.720082310017948</v>
       </c>
       <c r="F14">
-        <v>15.46558323795139</v>
+        <v>14.84410459547027</v>
       </c>
       <c r="G14">
-        <v>17.28290965564829</v>
+        <v>17.36609811811213</v>
       </c>
       <c r="H14">
-        <v>6.606582963336916</v>
+        <v>6.595110934953113</v>
       </c>
       <c r="J14">
-        <v>7.991130849924956</v>
+        <v>7.962993156001883</v>
       </c>
       <c r="K14">
-        <v>12.56416788714093</v>
+        <v>12.15932024199821</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>10.25484695060794</v>
       </c>
       <c r="M14">
-        <v>14.45072496969266</v>
+        <v>7.745001140054287</v>
       </c>
       <c r="N14">
-        <v>5.244898247647472</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>8.96088530945929</v>
+        <v>14.50099940901917</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>5.311940275765256</v>
       </c>
       <c r="Q14">
-        <v>12.33949954856977</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>8.943011601221569</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>11.92329193777414</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.24134818529112</v>
+        <v>16.21132212642815</v>
       </c>
       <c r="C15">
-        <v>10.32623124123621</v>
+        <v>10.30244883384686</v>
       </c>
       <c r="D15">
-        <v>7.154120807425078</v>
+        <v>7.271856623078319</v>
       </c>
       <c r="E15">
-        <v>7.819772553793476</v>
+        <v>7.762766799321557</v>
       </c>
       <c r="F15">
-        <v>15.34071984282672</v>
+        <v>14.76241578378295</v>
       </c>
       <c r="G15">
-        <v>17.10492916793958</v>
+        <v>17.04252900058925</v>
       </c>
       <c r="H15">
-        <v>6.841180848921521</v>
+        <v>6.829240881222365</v>
       </c>
       <c r="J15">
-        <v>7.974877316638604</v>
+        <v>7.990664824059215</v>
       </c>
       <c r="K15">
-        <v>12.53711130354382</v>
+        <v>12.15169344652817</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>10.25201948711543</v>
       </c>
       <c r="M15">
-        <v>14.41546481828039</v>
+        <v>7.724710758077475</v>
       </c>
       <c r="N15">
-        <v>5.19615240021966</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>8.836847223233658</v>
+        <v>14.46423807945323</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>5.26408033532413</v>
       </c>
       <c r="Q15">
-        <v>12.28402202052595</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>8.81900059629664</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>11.89615263221922</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.74766518371248</v>
+        <v>15.72506989249835</v>
       </c>
       <c r="C16">
-        <v>10.15943072086695</v>
+        <v>10.11752875073267</v>
       </c>
       <c r="D16">
-        <v>6.981191785837365</v>
+        <v>7.057693036801868</v>
       </c>
       <c r="E16">
-        <v>7.794599403839129</v>
+        <v>7.741613934867046</v>
       </c>
       <c r="F16">
-        <v>15.33725778329339</v>
+        <v>14.89805195666493</v>
       </c>
       <c r="G16">
-        <v>17.2547504838926</v>
+        <v>16.51184309812689</v>
       </c>
       <c r="H16">
-        <v>6.642112466159593</v>
+        <v>6.625172391524896</v>
       </c>
       <c r="J16">
-        <v>8.058834399260649</v>
+        <v>8.239782600540273</v>
       </c>
       <c r="K16">
-        <v>12.73354410475066</v>
+        <v>12.37552716354478</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>10.39527733527061</v>
       </c>
       <c r="M16">
-        <v>14.03631561068256</v>
+        <v>7.873957505246762</v>
       </c>
       <c r="N16">
-        <v>5.199599591176478</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>8.684886875317636</v>
+        <v>14.09009785958725</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>5.277771313990759</v>
       </c>
       <c r="Q16">
-        <v>12.42323820870241</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>8.665374531699113</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>12.11313168453673</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.45926426119051</v>
+        <v>15.43485627047603</v>
       </c>
       <c r="C17">
-        <v>9.886178326423105</v>
+        <v>9.837678076059001</v>
       </c>
       <c r="D17">
-        <v>6.809914095051747</v>
+        <v>6.872073855474064</v>
       </c>
       <c r="E17">
-        <v>7.711824452634716</v>
+        <v>7.649735440519804</v>
       </c>
       <c r="F17">
-        <v>15.60590682710838</v>
+        <v>15.20022927159954</v>
       </c>
       <c r="G17">
-        <v>17.78801931820161</v>
+        <v>16.74571896371104</v>
       </c>
       <c r="H17">
-        <v>5.923483291978751</v>
+        <v>5.901556772600697</v>
       </c>
       <c r="J17">
-        <v>8.177203555283903</v>
+        <v>8.425715604448373</v>
       </c>
       <c r="K17">
-        <v>12.98813721653805</v>
+        <v>12.61737845329446</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>10.55760007818746</v>
       </c>
       <c r="M17">
-        <v>13.73262988424892</v>
+        <v>8.058557818766712</v>
       </c>
       <c r="N17">
-        <v>5.319357791442171</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>8.806022111153489</v>
+        <v>13.7937190204176</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>5.405364705521665</v>
       </c>
       <c r="Q17">
-        <v>12.68077218964385</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>8.785030183168928</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>12.38294339115576</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.32280176552056</v>
+        <v>15.28699563949503</v>
       </c>
       <c r="C18">
-        <v>9.511155494344317</v>
+        <v>9.465504134005558</v>
       </c>
       <c r="D18">
-        <v>6.624091551970483</v>
+        <v>6.687337359836606</v>
       </c>
       <c r="E18">
-        <v>7.715503675376</v>
+        <v>7.628569881936921</v>
       </c>
       <c r="F18">
-        <v>16.13306612486317</v>
+        <v>15.70013741451757</v>
       </c>
       <c r="G18">
-        <v>18.71291191230102</v>
+        <v>17.49398714246173</v>
       </c>
       <c r="H18">
-        <v>4.70637803361722</v>
+        <v>4.677580249072808</v>
       </c>
       <c r="J18">
-        <v>8.339985460692724</v>
+        <v>8.60294023964499</v>
       </c>
       <c r="K18">
-        <v>13.33823526323499</v>
+        <v>12.92515229021394</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>10.7738254008411</v>
       </c>
       <c r="M18">
-        <v>13.46565591789434</v>
+        <v>8.304893924714204</v>
       </c>
       <c r="N18">
-        <v>5.626153292372258</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>9.177622626645867</v>
+        <v>13.53836106942759</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>5.718860933403342</v>
       </c>
       <c r="Q18">
-        <v>13.07247049271298</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>9.155021835535225</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>12.74802483767486</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.32173316834898</v>
+        <v>15.26724556725409</v>
       </c>
       <c r="C19">
-        <v>9.115640667195468</v>
+        <v>9.073435591555826</v>
       </c>
       <c r="D19">
-        <v>6.444811110365385</v>
+        <v>6.518287089400816</v>
       </c>
       <c r="E19">
-        <v>7.999162864530729</v>
+        <v>7.872269243763588</v>
       </c>
       <c r="F19">
-        <v>16.8263592161173</v>
+        <v>16.32908188677616</v>
       </c>
       <c r="G19">
-        <v>19.89760431522187</v>
+        <v>18.55098605496505</v>
       </c>
       <c r="H19">
-        <v>3.287668089868161</v>
+        <v>3.248262314939519</v>
       </c>
       <c r="J19">
-        <v>8.530387111634113</v>
+        <v>8.776544556599115</v>
       </c>
       <c r="K19">
-        <v>13.76572512354089</v>
+        <v>13.28749444906707</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>11.03370857892862</v>
       </c>
       <c r="M19">
-        <v>13.25383334709465</v>
+        <v>8.601907360910223</v>
       </c>
       <c r="N19">
-        <v>6.149298933784221</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>9.719777938148015</v>
+        <v>13.34097060064396</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>6.247352404074659</v>
       </c>
       <c r="Q19">
-        <v>13.55279991722248</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>9.695409932299391</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>13.1764027264535</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.69765374212365</v>
+        <v>15.60551586712407</v>
       </c>
       <c r="C20">
-        <v>8.679814149570285</v>
+        <v>8.646192401814396</v>
       </c>
       <c r="D20">
-        <v>6.295737137735872</v>
+        <v>6.402315387296115</v>
       </c>
       <c r="E20">
-        <v>8.93870009153639</v>
+        <v>8.739855072971055</v>
       </c>
       <c r="F20">
-        <v>17.95181088911262</v>
+        <v>17.29075180161294</v>
       </c>
       <c r="G20">
-        <v>21.75289284633386</v>
+        <v>20.42603531834288</v>
       </c>
       <c r="H20">
-        <v>1.869344781950927</v>
+        <v>1.818323080142343</v>
       </c>
       <c r="J20">
-        <v>8.791518295740218</v>
+        <v>8.914215027276473</v>
       </c>
       <c r="K20">
-        <v>14.38814787951453</v>
+        <v>13.77458235990829</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>11.36216807770895</v>
       </c>
       <c r="M20">
-        <v>13.21121814786061</v>
+        <v>9.052409521219568</v>
       </c>
       <c r="N20">
-        <v>7.168895315716004</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>10.69730093766238</v>
+        <v>13.32005819814037</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>7.270399243574377</v>
       </c>
       <c r="Q20">
-        <v>14.2631976572363</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>10.67027637977198</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>13.7616064603648</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.61856601180977</v>
+        <v>16.50553243541396</v>
       </c>
       <c r="C21">
-        <v>8.769813702700981</v>
+        <v>8.783259744572966</v>
       </c>
       <c r="D21">
-        <v>6.534174161921674</v>
+        <v>6.724595379005168</v>
       </c>
       <c r="E21">
-        <v>9.171565860273025</v>
+        <v>8.949274542350228</v>
       </c>
       <c r="F21">
-        <v>18.34650772762438</v>
+        <v>17.3407259787102</v>
       </c>
       <c r="G21">
-        <v>22.17693890961279</v>
+        <v>22.35862930302309</v>
       </c>
       <c r="H21">
-        <v>1.623140056218642</v>
+        <v>1.597353822303609</v>
       </c>
       <c r="J21">
-        <v>8.755301389724906</v>
+        <v>8.311608884410511</v>
       </c>
       <c r="K21">
-        <v>14.30235124945311</v>
+        <v>13.51860467675608</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>11.10535757812975</v>
       </c>
       <c r="M21">
-        <v>13.82381210274509</v>
+        <v>9.014012067225305</v>
       </c>
       <c r="N21">
-        <v>7.455514639938719</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>11.23432785502996</v>
+        <v>13.92804485881462</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>7.54329331938641</v>
       </c>
       <c r="Q21">
-        <v>14.30695381310407</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>11.20808582152616</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>13.56397532362647</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.1899961655319</v>
+        <v>17.06619523224063</v>
       </c>
       <c r="C22">
-        <v>8.847716861004287</v>
+        <v>8.890468636664727</v>
       </c>
       <c r="D22">
-        <v>6.695085127789392</v>
+        <v>6.941511455630395</v>
       </c>
       <c r="E22">
-        <v>9.267405304111637</v>
+        <v>9.034629850922988</v>
       </c>
       <c r="F22">
-        <v>18.56493693096487</v>
+        <v>17.32203423768645</v>
       </c>
       <c r="G22">
-        <v>22.38619442675745</v>
+        <v>23.69252406886271</v>
       </c>
       <c r="H22">
-        <v>1.639262968534808</v>
+        <v>1.648872807886523</v>
       </c>
       <c r="J22">
-        <v>8.721847822493421</v>
+        <v>7.962179788417218</v>
       </c>
       <c r="K22">
-        <v>14.21992285312342</v>
+        <v>13.31953952543403</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>10.92181589666286</v>
       </c>
       <c r="M22">
-        <v>14.22005956569059</v>
+        <v>8.970713053534983</v>
       </c>
       <c r="N22">
-        <v>7.589761942601453</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>11.53569613339202</v>
+        <v>14.31979004136808</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>7.668428752403704</v>
       </c>
       <c r="Q22">
-        <v>14.30982481437552</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>11.50990046578302</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>13.39803643736721</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.88737371630908</v>
+        <v>16.76793634497195</v>
       </c>
       <c r="C23">
-        <v>8.806231205433569</v>
+        <v>8.838812547466961</v>
       </c>
       <c r="D23">
-        <v>6.60972179900428</v>
+        <v>6.819753996181285</v>
       </c>
       <c r="E23">
-        <v>9.216367642460934</v>
+        <v>8.988395286050823</v>
       </c>
       <c r="F23">
-        <v>18.4473995586932</v>
+        <v>17.36178077896005</v>
       </c>
       <c r="G23">
-        <v>22.27275951330569</v>
+        <v>22.79018728779101</v>
       </c>
       <c r="H23">
-        <v>1.564933133632647</v>
+        <v>1.583510060748648</v>
       </c>
       <c r="J23">
-        <v>8.739314744760907</v>
+        <v>8.188400424700051</v>
       </c>
       <c r="K23">
-        <v>14.26317642759616</v>
+        <v>13.43954276900585</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>11.02785400412417</v>
       </c>
       <c r="M23">
-        <v>14.00997136792662</v>
+        <v>9.005484875310037</v>
       </c>
       <c r="N23">
-        <v>7.518393485205932</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>11.37576647339651</v>
+        <v>14.11415311141264</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>7.602794934075803</v>
       </c>
       <c r="Q23">
-        <v>14.30737034369271</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>11.34950395527231</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>13.50764987633234</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.68925614213869</v>
+        <v>15.59534183559489</v>
       </c>
       <c r="C24">
-        <v>8.647099249773769</v>
+        <v>8.609895822545278</v>
       </c>
       <c r="D24">
-        <v>6.275140046919946</v>
+        <v>6.382043751914017</v>
       </c>
       <c r="E24">
-        <v>9.020604118311169</v>
+        <v>8.817264182778462</v>
       </c>
       <c r="F24">
-        <v>18.02331339217055</v>
+        <v>17.35743703449475</v>
       </c>
       <c r="G24">
-        <v>21.88120679955527</v>
+        <v>20.53096307376367</v>
       </c>
       <c r="H24">
-        <v>1.850629161667414</v>
+        <v>1.799428253980955</v>
       </c>
       <c r="J24">
-        <v>8.813805874491159</v>
+        <v>8.938058198288291</v>
       </c>
       <c r="K24">
-        <v>14.44284629085223</v>
+        <v>13.82213224827375</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>11.3972618460484</v>
       </c>
       <c r="M24">
-        <v>13.18377444798726</v>
+        <v>9.089567378523771</v>
       </c>
       <c r="N24">
-        <v>7.242027927007713</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>10.75018589792688</v>
+        <v>13.29399348938142</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>7.344230899428855</v>
       </c>
       <c r="Q24">
-        <v>14.31788021875124</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>10.72293834283771</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>13.81172485012218</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.28514310713744</v>
+        <v>14.23688883960571</v>
       </c>
       <c r="C25">
-        <v>8.471333865619938</v>
+        <v>8.292517222277302</v>
       </c>
       <c r="D25">
-        <v>5.890848911984679</v>
+        <v>5.956491040831801</v>
       </c>
       <c r="E25">
-        <v>8.804385047609124</v>
+        <v>8.634490153377032</v>
       </c>
       <c r="F25">
-        <v>17.61092620401393</v>
+        <v>17.05841929000607</v>
       </c>
       <c r="G25">
-        <v>21.53724099016536</v>
+        <v>20.18629842471307</v>
       </c>
       <c r="H25">
-        <v>2.181880913046359</v>
+        <v>2.104185403720098</v>
       </c>
       <c r="J25">
-        <v>8.910850965442211</v>
+        <v>9.072125054675228</v>
       </c>
       <c r="K25">
-        <v>14.66807902473576</v>
+        <v>14.10278142581805</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>11.71454029571682</v>
       </c>
       <c r="M25">
-        <v>12.22865472738489</v>
+        <v>9.119845511026083</v>
       </c>
       <c r="N25">
-        <v>6.931815468426594</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>10.03484522455378</v>
+        <v>12.32038554625978</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>7.044254655692045</v>
       </c>
       <c r="Q25">
-        <v>14.36866607917558</v>
+        <v>10.00842205941922</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>13.935795214007</v>
       </c>
     </row>
   </sheetData>
